--- a/data/trans_orig/P34C_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P34C_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD9CABA7-7A7F-41E4-8062-79ABFC3B210A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F04F1149-1FB3-4F2B-B524-D9998C3CB37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DD97A448-2FF0-44F8-ACFF-A1563D81A10A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{30F260DD-6CFD-4292-A2E7-3723167CC09C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="183">
   <si>
     <t>Población según si realizan durante la semana alguna actividad física moderada con una duración de al menos 10 minutos en 2023 (Tasa respuesta: 99,81%)</t>
   </si>
@@ -74,169 +74,175 @@
     <t>70,09%</t>
   </si>
   <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
   </si>
   <si>
     <t>67,95%</t>
   </si>
   <si>
-    <t>63,33%</t>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
   </si>
   <si>
     <t>72,01%</t>
   </si>
   <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
   </si>
   <si>
     <t>73,46%</t>
   </si>
   <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -245,16 +251,16 @@
     <t>34,45%</t>
   </si>
   <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
   </si>
   <si>
     <t>32,2%</t>
   </si>
   <si>
-    <t>27,3%</t>
+    <t>27,46%</t>
   </si>
   <si>
     <t>37,25%</t>
@@ -263,19 +269,19 @@
     <t>33,17%</t>
   </si>
   <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
   </si>
   <si>
     <t>65,55%</t>
   </si>
   <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
   </si>
   <si>
     <t>67,8%</t>
@@ -284,16 +290,16 @@
     <t>62,75%</t>
   </si>
   <si>
-    <t>72,7%</t>
+    <t>72,54%</t>
   </si>
   <si>
     <t>66,83%</t>
   </si>
   <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -302,55 +308,55 @@
     <t>85,46%</t>
   </si>
   <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
   </si>
   <si>
     <t>81,94%</t>
   </si>
   <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
   </si>
   <si>
     <t>83,55%</t>
   </si>
   <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
   </si>
   <si>
     <t>14,54%</t>
   </si>
   <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
   </si>
   <si>
     <t>18,06%</t>
   </si>
   <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
   </si>
   <si>
     <t>16,45%</t>
   </si>
   <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -359,55 +365,55 @@
     <t>11,85%</t>
   </si>
   <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
   </si>
   <si>
     <t>16,65%</t>
   </si>
   <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
   </si>
   <si>
     <t>14,25%</t>
   </si>
   <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
   </si>
   <si>
     <t>88,15%</t>
   </si>
   <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
   </si>
   <si>
     <t>83,35%</t>
   </si>
   <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
   </si>
   <si>
     <t>85,75%</t>
   </si>
   <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -416,55 +422,55 @@
     <t>56,04%</t>
   </si>
   <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
   </si>
   <si>
     <t>41,82%</t>
   </si>
   <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
   </si>
   <si>
     <t>48,05%</t>
   </si>
   <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
   </si>
   <si>
     <t>43,96%</t>
   </si>
   <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
   </si>
   <si>
     <t>58,18%</t>
   </si>
   <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
   </si>
   <si>
     <t>51,95%</t>
   </si>
   <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -473,109 +479,109 @@
     <t>36,18%</t>
   </si>
   <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
   </si>
   <si>
     <t>28,93%</t>
   </si>
   <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
   </si>
   <si>
     <t>32,54%</t>
   </si>
   <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
   </si>
   <si>
     <t>63,82%</t>
   </si>
   <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
+    <t>59,62%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
   </si>
   <si>
     <t>71,07%</t>
   </si>
   <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
   </si>
   <si>
     <t>67,46%</t>
   </si>
   <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
   </si>
   <si>
     <t>44,69%</t>
   </si>
   <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
   </si>
   <si>
     <t>39,18%</t>
   </si>
   <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
   </si>
   <si>
     <t>41,77%</t>
   </si>
   <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
   </si>
   <si>
     <t>55,31%</t>
   </si>
   <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
   </si>
   <si>
     <t>60,82%</t>
   </si>
   <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
   </si>
   <si>
     <t>58,23%</t>
   </si>
   <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -990,7 +996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C1C832-8C03-4882-A0F8-A77C436EA0ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4FC40EF-FD63-4B66-A25E-2FE7CA2414A6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1439,13 +1445,13 @@
         <v>104467</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>228</v>
@@ -1454,13 +1460,13 @@
         <v>184566</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1475,13 +1481,13 @@
         <v>242141</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>396</v>
@@ -1490,13 +1496,13 @@
         <v>268817</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>668</v>
@@ -1505,13 +1511,13 @@
         <v>510958</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1567,7 +1573,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1579,13 +1585,13 @@
         <v>111013</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>207</v>
@@ -1594,13 +1600,13 @@
         <v>138011</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>322</v>
@@ -1609,13 +1615,13 @@
         <v>249023</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1630,13 +1636,13 @@
         <v>211227</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>392</v>
@@ -1645,13 +1651,13 @@
         <v>290545</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>569</v>
@@ -1660,13 +1666,13 @@
         <v>501773</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1722,7 +1728,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1734,13 +1740,13 @@
         <v>167724</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>395</v>
@@ -1749,13 +1755,13 @@
         <v>189374</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>631</v>
@@ -1764,13 +1770,13 @@
         <v>357099</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1785,13 +1791,13 @@
         <v>28547</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>95</v>
@@ -1800,13 +1806,13 @@
         <v>41736</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>137</v>
@@ -1815,13 +1821,13 @@
         <v>70283</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1877,7 +1883,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1889,13 +1895,13 @@
         <v>32859</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>70</v>
@@ -1904,13 +1910,13 @@
         <v>45900</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>105</v>
@@ -1919,13 +1925,13 @@
         <v>78758</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1940,13 +1946,13 @@
         <v>244364</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>390</v>
@@ -1955,13 +1961,13 @@
         <v>229722</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>726</v>
@@ -1970,13 +1976,13 @@
         <v>474087</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2032,7 +2038,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2044,13 +2050,13 @@
         <v>350673</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>442</v>
@@ -2059,13 +2065,13 @@
         <v>335761</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>756</v>
@@ -2074,13 +2080,13 @@
         <v>686433</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2095,13 +2101,13 @@
         <v>275053</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>516</v>
@@ -2110,13 +2116,13 @@
         <v>467046</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>799</v>
@@ -2125,13 +2131,13 @@
         <v>742100</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2187,7 +2193,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2199,13 +2205,13 @@
         <v>310500</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>271</v>
@@ -2214,13 +2220,13 @@
         <v>249787</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>529</v>
@@ -2229,13 +2235,13 @@
         <v>560287</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2250,13 +2256,13 @@
         <v>547748</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>787</v>
@@ -2265,13 +2271,13 @@
         <v>613753</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>1290</v>
@@ -2280,13 +2286,13 @@
         <v>1161501</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2354,13 +2360,13 @@
         <v>1511200</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>2177</v>
@@ -2369,13 +2375,13 @@
         <v>1488640</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>3636</v>
@@ -2384,13 +2390,13 @@
         <v>2999841</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2405,28 +2411,28 @@
         <v>1870343</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>3177</v>
       </c>
       <c r="I29" s="7">
-        <v>2310811</v>
+        <v>2310810</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>5090</v>
@@ -2435,13 +2441,13 @@
         <v>4181153</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2468,7 +2474,7 @@
         <v>5354</v>
       </c>
       <c r="I30" s="7">
-        <v>3799451</v>
+        <v>3799450</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -2497,7 +2503,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34C_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P34C_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F04F1149-1FB3-4F2B-B524-D9998C3CB37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{467A235F-BC0E-4B55-B776-B48BC30F7A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{30F260DD-6CFD-4292-A2E7-3723167CC09C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9568011A-9669-4DB1-9986-170E80997C0E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -996,7 +996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4FC40EF-FD63-4B66-A25E-2FE7CA2414A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB794693-CB82-4939-AE89-7ABAE5843D49}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P34C_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P34C_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{467A235F-BC0E-4B55-B776-B48BC30F7A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CE8B5D5-FEA1-40FD-A199-9E96E9FA2C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9568011A-9669-4DB1-9986-170E80997C0E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7130B8E0-0A8E-4F65-80DE-E0AA2FAB346B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
   <si>
     <t>Población según si realizan durante la semana alguna actividad física moderada con una duración de al menos 10 minutos en 2023 (Tasa respuesta: 99,81%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>70,09%</t>
   </si>
   <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
   </si>
   <si>
     <t>67,95%</t>
   </si>
   <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
   </si>
   <si>
     <t>69,0%</t>
   </si>
   <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>29,91%</t>
   </si>
   <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
   </si>
   <si>
     <t>32,05%</t>
   </si>
   <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
   </si>
   <si>
     <t>31,0%</t>
   </si>
   <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>53,13%</t>
   </si>
   <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
   </si>
   <si>
     <t>43,58%</t>
   </si>
   <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
   </si>
   <si>
     <t>48,2%</t>
   </si>
   <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
   </si>
   <si>
     <t>46,87%</t>
   </si>
   <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
   </si>
   <si>
     <t>56,42%</t>
   </si>
   <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
   </si>
   <si>
     <t>51,8%</t>
   </si>
   <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -197,52 +197,46 @@
     <t>20,25%</t>
   </si>
   <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
   </si>
   <si>
     <t>26,54%</t>
   </si>
   <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
   </si>
   <si>
     <t>75,14%</t>
   </si>
   <si>
-    <t>70,68%</t>
+    <t>70,4%</t>
   </si>
   <si>
     <t>79,75%</t>
   </si>
   <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
   </si>
   <si>
     <t>73,46%</t>
   </si>
   <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -251,16 +245,16 @@
     <t>34,45%</t>
   </si>
   <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
   </si>
   <si>
     <t>32,2%</t>
   </si>
   <si>
-    <t>27,46%</t>
+    <t>27,3%</t>
   </si>
   <si>
     <t>37,25%</t>
@@ -269,19 +263,19 @@
     <t>33,17%</t>
   </si>
   <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
   </si>
   <si>
     <t>65,55%</t>
   </si>
   <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
   </si>
   <si>
     <t>67,8%</t>
@@ -290,16 +284,16 @@
     <t>62,75%</t>
   </si>
   <si>
-    <t>72,54%</t>
+    <t>72,7%</t>
   </si>
   <si>
     <t>66,83%</t>
   </si>
   <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -308,55 +302,55 @@
     <t>85,46%</t>
   </si>
   <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
   </si>
   <si>
     <t>81,94%</t>
   </si>
   <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
   </si>
   <si>
     <t>83,55%</t>
   </si>
   <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
   </si>
   <si>
     <t>14,54%</t>
   </si>
   <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
   </si>
   <si>
     <t>18,06%</t>
   </si>
   <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
   </si>
   <si>
     <t>16,45%</t>
   </si>
   <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -365,55 +359,55 @@
     <t>11,85%</t>
   </si>
   <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
   </si>
   <si>
     <t>16,65%</t>
   </si>
   <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
   </si>
   <si>
     <t>14,25%</t>
   </si>
   <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
   </si>
   <si>
     <t>88,15%</t>
   </si>
   <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
   </si>
   <si>
     <t>83,35%</t>
   </si>
   <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
   </si>
   <si>
     <t>85,75%</t>
   </si>
   <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -422,55 +416,55 @@
     <t>56,04%</t>
   </si>
   <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>60,35%</t>
   </si>
   <si>
     <t>41,82%</t>
   </si>
   <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
   </si>
   <si>
     <t>48,05%</t>
   </si>
   <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
   </si>
   <si>
     <t>43,96%</t>
   </si>
   <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
   </si>
   <si>
     <t>58,18%</t>
   </si>
   <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
   </si>
   <si>
     <t>51,95%</t>
   </si>
   <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -479,109 +473,109 @@
     <t>36,18%</t>
   </si>
   <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
   </si>
   <si>
     <t>28,93%</t>
   </si>
   <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
   </si>
   <si>
     <t>32,54%</t>
   </si>
   <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
   </si>
   <si>
     <t>63,82%</t>
   </si>
   <si>
-    <t>59,62%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
   </si>
   <si>
     <t>71,07%</t>
   </si>
   <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
   </si>
   <si>
     <t>67,46%</t>
   </si>
   <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
   </si>
   <si>
     <t>44,69%</t>
   </si>
   <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
   </si>
   <si>
     <t>39,18%</t>
   </si>
   <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
   </si>
   <si>
     <t>41,77%</t>
   </si>
   <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
   </si>
   <si>
     <t>55,31%</t>
   </si>
   <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
   </si>
   <si>
     <t>60,82%</t>
   </si>
   <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
   </si>
   <si>
     <t>58,23%</t>
   </si>
   <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -996,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB794693-CB82-4939-AE89-7ABAE5843D49}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6047CC4-6B59-4A55-864D-8946015A01EB}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1445,13 +1439,13 @@
         <v>104467</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>228</v>
@@ -1460,13 +1454,13 @@
         <v>184566</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1481,13 +1475,13 @@
         <v>242141</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>396</v>
@@ -1496,13 +1490,13 @@
         <v>268817</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>668</v>
@@ -1511,13 +1505,13 @@
         <v>510958</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1573,7 +1567,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1585,13 +1579,13 @@
         <v>111013</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>207</v>
@@ -1600,13 +1594,13 @@
         <v>138011</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>322</v>
@@ -1615,13 +1609,13 @@
         <v>249023</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1636,13 +1630,13 @@
         <v>211227</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>392</v>
@@ -1651,13 +1645,13 @@
         <v>290545</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>569</v>
@@ -1666,13 +1660,13 @@
         <v>501773</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1728,7 +1722,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1740,13 +1734,13 @@
         <v>167724</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>395</v>
@@ -1755,13 +1749,13 @@
         <v>189374</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>631</v>
@@ -1770,13 +1764,13 @@
         <v>357099</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1791,13 +1785,13 @@
         <v>28547</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>95</v>
@@ -1806,13 +1800,13 @@
         <v>41736</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>137</v>
@@ -1821,13 +1815,13 @@
         <v>70283</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1883,7 +1877,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1895,13 +1889,13 @@
         <v>32859</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>70</v>
@@ -1910,13 +1904,13 @@
         <v>45900</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>105</v>
@@ -1925,13 +1919,13 @@
         <v>78758</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1946,13 +1940,13 @@
         <v>244364</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>390</v>
@@ -1961,13 +1955,13 @@
         <v>229722</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>726</v>
@@ -1976,13 +1970,13 @@
         <v>474087</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2038,7 +2032,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2050,13 +2044,13 @@
         <v>350673</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>442</v>
@@ -2065,13 +2059,13 @@
         <v>335761</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>756</v>
@@ -2080,13 +2074,13 @@
         <v>686433</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2101,13 +2095,13 @@
         <v>275053</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>516</v>
@@ -2116,13 +2110,13 @@
         <v>467046</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>799</v>
@@ -2131,13 +2125,13 @@
         <v>742100</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2193,7 +2187,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2205,13 +2199,13 @@
         <v>310500</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>271</v>
@@ -2220,13 +2214,13 @@
         <v>249787</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>529</v>
@@ -2235,13 +2229,13 @@
         <v>560287</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2256,13 +2250,13 @@
         <v>547748</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>787</v>
@@ -2271,13 +2265,13 @@
         <v>613753</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>1290</v>
@@ -2286,13 +2280,13 @@
         <v>1161501</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2360,13 +2354,13 @@
         <v>1511200</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>2177</v>
@@ -2375,13 +2369,13 @@
         <v>1488640</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>3636</v>
@@ -2390,13 +2384,13 @@
         <v>2999841</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2411,28 +2405,28 @@
         <v>1870343</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>3177</v>
       </c>
       <c r="I29" s="7">
-        <v>2310810</v>
+        <v>2310811</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>5090</v>
@@ -2441,13 +2435,13 @@
         <v>4181153</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2474,7 +2468,7 @@
         <v>5354</v>
       </c>
       <c r="I30" s="7">
-        <v>3799450</v>
+        <v>3799451</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -2503,7 +2497,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34C_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P34C_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CE8B5D5-FEA1-40FD-A199-9E96E9FA2C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B2D376D-F254-4C4B-8EF7-C2EA7DCC90FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7130B8E0-0A8E-4F65-80DE-E0AA2FAB346B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5881847B-E0C4-46E7-B93D-AFCD8B214633}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="183">
   <si>
     <t>Población según si realizan durante la semana alguna actividad física moderada con una duración de al menos 10 minutos en 2023 (Tasa respuesta: 99,81%)</t>
   </si>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,448 +134,454 @@
     <t>Cadiz</t>
   </si>
   <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
   </si>
   <si>
     <t>Cordoba</t>
   </si>
   <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
   </si>
   <si>
     <t>26,54%</t>
   </si>
   <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
   </si>
   <si>
     <t>73,46%</t>
   </si>
   <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
   </si>
   <si>
     <t>Granada</t>
   </si>
   <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
   </si>
   <si>
     <t>Huelva</t>
   </si>
   <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
   </si>
   <si>
     <t>Jaen</t>
   </si>
   <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
   </si>
   <si>
     <t>16,65%</t>
   </si>
   <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
   </si>
   <si>
     <t>83,35%</t>
   </si>
   <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -990,7 +996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6047CC4-6B59-4A55-864D-8946015A01EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9B976F-BDE8-4D92-8021-61E4AADDE1B5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1111,7 +1117,7 @@
         <v>223</v>
       </c>
       <c r="D4" s="7">
-        <v>182455</v>
+        <v>222168</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1126,7 +1132,7 @@
         <v>351</v>
       </c>
       <c r="I4" s="7">
-        <v>184037</v>
+        <v>198194</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1141,7 +1147,7 @@
         <v>574</v>
       </c>
       <c r="N4" s="7">
-        <v>366492</v>
+        <v>420362</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1162,7 +1168,7 @@
         <v>108</v>
       </c>
       <c r="D5" s="7">
-        <v>77843</v>
+        <v>89275</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1177,7 +1183,7 @@
         <v>186</v>
       </c>
       <c r="I5" s="7">
-        <v>86824</v>
+        <v>90857</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1192,7 +1198,7 @@
         <v>294</v>
       </c>
       <c r="N5" s="7">
-        <v>164667</v>
+        <v>180132</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1213,7 +1219,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1228,7 +1234,7 @@
         <v>537</v>
       </c>
       <c r="I6" s="7">
-        <v>270861</v>
+        <v>289051</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1243,7 +1249,7 @@
         <v>868</v>
       </c>
       <c r="N6" s="7">
-        <v>531159</v>
+        <v>600494</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1266,7 +1272,7 @@
         <v>190</v>
       </c>
       <c r="D7" s="7">
-        <v>275879</v>
+        <v>279159</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1281,7 +1287,7 @@
         <v>301</v>
       </c>
       <c r="I7" s="7">
-        <v>241303</v>
+        <v>225193</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1296,7 +1302,7 @@
         <v>491</v>
       </c>
       <c r="N7" s="7">
-        <v>517182</v>
+        <v>504353</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1317,7 +1323,7 @@
         <v>192</v>
       </c>
       <c r="D8" s="7">
-        <v>243418</v>
+        <v>239231</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1332,7 +1338,7 @@
         <v>415</v>
       </c>
       <c r="I8" s="7">
-        <v>312366</v>
+        <v>288911</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1347,7 +1353,7 @@
         <v>607</v>
       </c>
       <c r="N8" s="7">
-        <v>555785</v>
+        <v>528141</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1368,7 +1374,7 @@
         <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1383,7 +1389,7 @@
         <v>716</v>
       </c>
       <c r="I9" s="7">
-        <v>553669</v>
+        <v>514104</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1398,7 +1404,7 @@
         <v>1098</v>
       </c>
       <c r="N9" s="7">
-        <v>1072967</v>
+        <v>1032494</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1421,7 +1427,7 @@
         <v>88</v>
       </c>
       <c r="D10" s="7">
-        <v>80099</v>
+        <v>78414</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1436,31 +1442,31 @@
         <v>140</v>
       </c>
       <c r="I10" s="7">
-        <v>104467</v>
+        <v>98103</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>228</v>
       </c>
       <c r="N10" s="7">
-        <v>184566</v>
+        <v>176517</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1472,46 +1478,46 @@
         <v>272</v>
       </c>
       <c r="D11" s="7">
-        <v>242141</v>
+        <v>237636</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>396</v>
       </c>
       <c r="I11" s="7">
-        <v>268817</v>
+        <v>251025</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>668</v>
       </c>
       <c r="N11" s="7">
-        <v>510958</v>
+        <v>488661</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1523,7 +1529,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1538,7 +1544,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1553,7 +1559,7 @@
         <v>896</v>
       </c>
       <c r="N12" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1567,7 +1573,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1576,46 +1582,46 @@
         <v>115</v>
       </c>
       <c r="D13" s="7">
-        <v>111013</v>
+        <v>107299</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>207</v>
       </c>
       <c r="I13" s="7">
-        <v>138011</v>
+        <v>128054</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>322</v>
       </c>
       <c r="N13" s="7">
-        <v>249023</v>
+        <v>235352</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1627,46 +1633,46 @@
         <v>177</v>
       </c>
       <c r="D14" s="7">
-        <v>211227</v>
+        <v>205258</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>392</v>
       </c>
       <c r="I14" s="7">
-        <v>290545</v>
+        <v>347664</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>569</v>
       </c>
       <c r="N14" s="7">
-        <v>501773</v>
+        <v>552922</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1678,7 +1684,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1693,7 +1699,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1708,7 +1714,7 @@
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1722,7 +1728,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1731,46 +1737,46 @@
         <v>236</v>
       </c>
       <c r="D16" s="7">
-        <v>167724</v>
+        <v>152436</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>395</v>
       </c>
       <c r="I16" s="7">
-        <v>189374</v>
+        <v>170300</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>631</v>
       </c>
       <c r="N16" s="7">
-        <v>357099</v>
+        <v>322736</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1782,46 +1788,46 @@
         <v>42</v>
       </c>
       <c r="D17" s="7">
-        <v>28547</v>
+        <v>25864</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>95</v>
       </c>
       <c r="I17" s="7">
-        <v>41736</v>
+        <v>37623</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>137</v>
       </c>
       <c r="N17" s="7">
-        <v>70283</v>
+        <v>63487</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1833,7 +1839,7 @@
         <v>278</v>
       </c>
       <c r="D18" s="7">
-        <v>196271</v>
+        <v>178300</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1848,7 +1854,7 @@
         <v>490</v>
       </c>
       <c r="I18" s="7">
-        <v>231110</v>
+        <v>207923</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1863,7 +1869,7 @@
         <v>768</v>
       </c>
       <c r="N18" s="7">
-        <v>427382</v>
+        <v>386223</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1877,7 +1883,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1886,46 +1892,46 @@
         <v>35</v>
       </c>
       <c r="D19" s="7">
-        <v>32859</v>
+        <v>32075</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>70</v>
       </c>
       <c r="I19" s="7">
-        <v>45900</v>
+        <v>42829</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>105</v>
       </c>
       <c r="N19" s="7">
-        <v>78758</v>
+        <v>74904</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1937,46 +1943,46 @@
         <v>336</v>
       </c>
       <c r="D20" s="7">
-        <v>244364</v>
+        <v>237561</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>390</v>
       </c>
       <c r="I20" s="7">
-        <v>229722</v>
+        <v>214227</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>726</v>
       </c>
       <c r="N20" s="7">
-        <v>474087</v>
+        <v>451788</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1988,7 +1994,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2003,7 +2009,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2018,7 +2024,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2032,7 +2038,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2041,46 +2047,46 @@
         <v>314</v>
       </c>
       <c r="D22" s="7">
-        <v>350673</v>
+        <v>348801</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>442</v>
       </c>
       <c r="I22" s="7">
-        <v>335761</v>
+        <v>311364</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>756</v>
       </c>
       <c r="N22" s="7">
-        <v>686433</v>
+        <v>660165</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2092,46 +2098,46 @@
         <v>283</v>
       </c>
       <c r="D23" s="7">
-        <v>275053</v>
+        <v>273480</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>516</v>
       </c>
       <c r="I23" s="7">
-        <v>467046</v>
+        <v>536601</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>799</v>
       </c>
       <c r="N23" s="7">
-        <v>742100</v>
+        <v>810080</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2143,7 +2149,7 @@
         <v>597</v>
       </c>
       <c r="D24" s="7">
-        <v>625726</v>
+        <v>622281</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2158,7 +2164,7 @@
         <v>958</v>
       </c>
       <c r="I24" s="7">
-        <v>802807</v>
+        <v>847965</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -2173,7 +2179,7 @@
         <v>1555</v>
       </c>
       <c r="N24" s="7">
-        <v>1428533</v>
+        <v>1470245</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2187,7 +2193,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2196,46 +2202,46 @@
         <v>258</v>
       </c>
       <c r="D25" s="7">
-        <v>310500</v>
+        <v>259953</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>271</v>
       </c>
       <c r="I25" s="7">
-        <v>249787</v>
+        <v>202685</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>529</v>
       </c>
       <c r="N25" s="7">
-        <v>560287</v>
+        <v>462638</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2247,46 +2253,46 @@
         <v>503</v>
       </c>
       <c r="D26" s="7">
-        <v>547748</v>
+        <v>667838</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>787</v>
       </c>
       <c r="I26" s="7">
-        <v>613753</v>
+        <v>510887</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>1290</v>
       </c>
       <c r="N26" s="7">
-        <v>1161501</v>
+        <v>1178726</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2298,7 +2304,7 @@
         <v>761</v>
       </c>
       <c r="D27" s="7">
-        <v>858248</v>
+        <v>927791</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -2313,7 +2319,7 @@
         <v>1058</v>
       </c>
       <c r="I27" s="7">
-        <v>863540</v>
+        <v>713572</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -2328,7 +2334,7 @@
         <v>1819</v>
       </c>
       <c r="N27" s="7">
-        <v>1721788</v>
+        <v>1641364</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -2351,46 +2357,46 @@
         <v>1459</v>
       </c>
       <c r="D28" s="7">
-        <v>1511200</v>
+        <v>1480304</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>2177</v>
       </c>
       <c r="I28" s="7">
-        <v>1488640</v>
+        <v>1376722</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>3636</v>
       </c>
       <c r="N28" s="7">
-        <v>2999841</v>
+        <v>2857026</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2402,46 +2408,46 @@
         <v>1913</v>
       </c>
       <c r="D29" s="7">
-        <v>1870343</v>
+        <v>1976143</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>3177</v>
       </c>
       <c r="I29" s="7">
-        <v>2310811</v>
+        <v>2277794</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>5090</v>
       </c>
       <c r="N29" s="7">
-        <v>4181153</v>
+        <v>4253937</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2453,7 +2459,7 @@
         <v>3372</v>
       </c>
       <c r="D30" s="7">
-        <v>3381543</v>
+        <v>3456447</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -2468,7 +2474,7 @@
         <v>5354</v>
       </c>
       <c r="I30" s="7">
-        <v>3799451</v>
+        <v>3654516</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -2483,7 +2489,7 @@
         <v>8726</v>
       </c>
       <c r="N30" s="7">
-        <v>7180994</v>
+        <v>7110963</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -2497,7 +2503,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
